--- a/data/trans_orig/Q21A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Habitat-trans_orig.xlsx
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,88</t>
+          <t>1,52; 3,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,12</t>
+          <t>1,48; 2,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,45</t>
+          <t>1,36; 2,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,06</t>
+          <t>1,51; 2,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,59</t>
+          <t>1,8; 2,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,06</t>
+          <t>1,51; 2,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,32</t>
+          <t>1,51; 2,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 1,72</t>
+          <t>1,4; 1,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,5</t>
+          <t>1,77; 2,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 1,95</t>
+          <t>1,55; 1,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,15</t>
+          <t>1,5; 2,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,52</t>
+          <t>1,25; 1,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 1,59</t>
+          <t>1,29; 1,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,39</t>
+          <t>1,42; 2,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,99</t>
+          <t>1,47; 2,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 1,97</t>
+          <t>1,58; 1,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,27</t>
+          <t>1,76; 2,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,37</t>
+          <t>1,61; 2,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,23</t>
+          <t>1,7; 2,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 1,74</t>
+          <t>1,5; 1,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 1,9</t>
+          <t>1,59; 1,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,06</t>
+          <t>1,56; 2,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,36</t>
+          <t>1,65; 2,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,45</t>
+          <t>1,17; 1,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,72</t>
+          <t>1,75; 2,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 1,84</t>
+          <t>1,35; 1,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,04</t>
+          <t>1,53; 2,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,13</t>
+          <t>1,5; 2,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,13</t>
+          <t>1,68; 2,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,02</t>
+          <t>1,81; 3,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 13,16</t>
+          <t>2,18; 13,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 1,76</t>
+          <t>1,39; 1,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,27</t>
+          <t>1,81; 2,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,35</t>
+          <t>1,67; 2,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 11,76</t>
+          <t>2,02; 12,41</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,98</t>
+          <t>1,29; 1,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 1,83</t>
+          <t>1,41; 1,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,42 +1159,42 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,23</t>
+          <t>1,52; 2,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,0</t>
+          <t>1,55; 2,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,02</t>
+          <t>1,47; 1,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,22</t>
+          <t>1,69; 2,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,36</t>
+          <t>1,6; 2,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 1,87</t>
+          <t>1,49; 1,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 1,83</t>
+          <t>1,5; 1,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 1,95</t>
+          <t>1,62; 1,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,52 +1284,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,47</t>
+          <t>1,29; 1,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 1,97</t>
+          <t>1,57; 1,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,81</t>
+          <t>1,5; 1,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,12</t>
+          <t>1,61; 2,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 1,87</t>
+          <t>1,62; 1,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,04</t>
+          <t>1,77; 2,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,09</t>
+          <t>1,76; 2,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,61</t>
+          <t>1,89; 9,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 1,68</t>
+          <t>1,52; 1,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 1,95</t>
+          <t>1,73; 1,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,71</t>
+          <t>1,85; 7,74</t>
         </is>
       </c>
     </row>
